--- a/docs/bom/bom.xlsx
+++ b/docs/bom/bom.xlsx
@@ -137,7 +137,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-12-22_01-38-32</t>
+    <t>2024-01-07_22-50-44</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/docs/bom/bom.xlsx
+++ b/docs/bom/bom.xlsx
@@ -137,7 +137,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2024-01-07_22-50-44</t>
+    <t>2024-01-08_08-21-33</t>
   </si>
   <si>
     <t>KiCad Version:</t>
